--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_7.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9993934453594984</v>
+        <v>0.9999719828788349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987579380320365</v>
+        <v>0.9991637223748903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9993463561913507</v>
+        <v>0.9994294236327856</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995604394329934</v>
+        <v>0.9999878569615703</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9994758900603314</v>
+        <v>0.9999460937639684</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0005661921322366684</v>
+        <v>2.615275279814638e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001159410326874652</v>
+        <v>0.0007806284546947046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000426067686746715</v>
+        <v>0.0001184327315523425</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003667663335904301</v>
+        <v>1.825384245651129e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003964170101685726</v>
+        <v>6.83432870044269e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002797984276598813</v>
+        <v>0.0004269637309107636</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02379479212425838</v>
+        <v>0.005113976221898805</v>
       </c>
       <c r="N2" t="n">
-        <v>1.014557311372039</v>
+        <v>1.000672410907962</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02480778568699816</v>
+        <v>0.005331688777055211</v>
       </c>
       <c r="P2" t="n">
-        <v>64.95315416222959</v>
+        <v>71.10311220693241</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.42504978393461</v>
+        <v>101.5750078286374</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9993812009639151</v>
+        <v>0.9999723221572039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9987490512481909</v>
+        <v>0.9991632469294615</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9993353831245314</v>
+        <v>0.9994425817809434</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995501902420882</v>
+        <v>0.9999877156989799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994655084749052</v>
+        <v>0.9999470871418185</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0005776217380468353</v>
+        <v>2.583605133330742e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001167705749509767</v>
+        <v>0.0007810722621329399</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004332203119752013</v>
+        <v>0.0001157015363643795</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000375318188448954</v>
+        <v>1.846619335072399e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0004042692502120777</v>
+        <v>6.708386485755174e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002826378054025604</v>
+        <v>0.0004266966295293463</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02403376246131336</v>
+        <v>0.005082917600483744</v>
       </c>
       <c r="N3" t="n">
-        <v>1.014851176866037</v>
+        <v>1.000664268227107</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02505692948603837</v>
+        <v>0.005299307925826302</v>
       </c>
       <c r="P3" t="n">
-        <v>64.91318267194241</v>
+        <v>71.1274794058107</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.38507829364742</v>
+        <v>101.5993750275157</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999368705862184</v>
+        <v>0.9999726580265306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9987399288230163</v>
+        <v>0.99916276462326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9993242303449555</v>
+        <v>0.9994557062747084</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995396962534523</v>
+        <v>0.9999875708382654</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9994549144247992</v>
+        <v>0.9999480756315993</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0005892853670412896</v>
+        <v>2.552253205983446e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001176221132982057</v>
+        <v>0.0007815224738010834</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004404900802065363</v>
+        <v>0.0001129773267122911</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003840743008613105</v>
+        <v>1.868395307176861e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0004122821905339234</v>
+        <v>6.583063989202986e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002855044130113438</v>
+        <v>0.000426424555416794</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02427520065913544</v>
+        <v>0.005051982982931995</v>
       </c>
       <c r="N4" t="n">
-        <v>1.015151059307585</v>
+        <v>1.000656207363266</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0253086462077877</v>
+        <v>0.005267056357561889</v>
       </c>
       <c r="P4" t="n">
-        <v>64.87319999502849</v>
+        <v>71.15189777152796</v>
       </c>
       <c r="Q4" t="n">
-        <v>95.3450956167335</v>
+        <v>101.623793393233</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9993559410026505</v>
+        <v>0.9999729730804343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.998730574146127</v>
+        <v>0.9991622958391302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9993128634640929</v>
+        <v>0.9994683664278469</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999528909346451</v>
+        <v>0.9999874185941006</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9994440665494358</v>
+        <v>0.9999490217332803</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0006012008031032479</v>
+        <v>2.522844306995609e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001184953313235411</v>
+        <v>0.0007819600632091046</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004478994070763082</v>
+        <v>0.0001103494987750857</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000393074822356181</v>
+        <v>1.891281185512441e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004204871147162446</v>
+        <v>6.463115531510504e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002884049468279724</v>
+        <v>0.0004262304752148594</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02451939646694527</v>
+        <v>0.005022792357838027</v>
       </c>
       <c r="N5" t="n">
-        <v>1.015457415936389</v>
+        <v>1.000648646069576</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02556323793669101</v>
+        <v>0.005236623027124747</v>
       </c>
       <c r="P5" t="n">
-        <v>64.83316312850521</v>
+        <v>71.17507701338002</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.30505875021022</v>
+        <v>101.646972635085</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9993429413144719</v>
+        <v>0.9999732947617093</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9987210009302595</v>
+        <v>0.9991617914089876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9993013128342835</v>
+        <v>0.9994812873704482</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995179282190551</v>
+        <v>0.9999872648252831</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999433032367792</v>
+        <v>0.9999499882792757</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0006133354413975601</v>
+        <v>2.49281677199175e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001193889490032147</v>
+        <v>0.0007824309266052526</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004554285078773773</v>
+        <v>0.0001076675395941033</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0004022374000212213</v>
+        <v>1.914396254970071e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0004288329539492993</v>
+        <v>6.340575107190201e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002913282051486877</v>
+        <v>0.0004259901728261283</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0247656100550251</v>
+        <v>0.004992811604689035</v>
       </c>
       <c r="N6" t="n">
-        <v>1.015769408452675</v>
+        <v>1.000640925718978</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02581993334694778</v>
+        <v>0.005205365931245487</v>
       </c>
       <c r="P6" t="n">
-        <v>64.79319711794804</v>
+        <v>71.19902432024946</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.26509273965306</v>
+        <v>101.6709199419545</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9993296686895184</v>
+        <v>0.999973629605831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9987111664928814</v>
+        <v>0.9991612383774849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9992895519315733</v>
+        <v>0.9994945884987572</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9995067023437816</v>
+        <v>0.9999871135602648</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9994217725805677</v>
+        <v>0.9999509874315895</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006257248541907288</v>
+        <v>2.46156054302593e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001203069505642653</v>
+        <v>0.0007829471572377004</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004630946718423205</v>
+        <v>0.000104906666468479</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0004116041936429546</v>
+        <v>1.937134944543957e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004373494327426376</v>
+        <v>6.213900795695931e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002942822363382904</v>
+        <v>0.0004256319767283626</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02501449288294146</v>
+        <v>0.004961411636848861</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016087951451557</v>
+        <v>1.000632889460055</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02607941163210702</v>
+        <v>0.005172629201767463</v>
       </c>
       <c r="P7" t="n">
-        <v>64.75319962706516</v>
+        <v>71.22425989813598</v>
       </c>
       <c r="Q7" t="n">
-        <v>95.22509524877017</v>
+        <v>101.696155519841</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9993161264380647</v>
+        <v>0.9999739351454016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9987010965262484</v>
+        <v>0.9991607132576489</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9992776139690694</v>
+        <v>0.9995071859504255</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994951786853143</v>
+        <v>0.9999869545647984</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9994102722459486</v>
+        <v>0.9999519243980701</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0006383659514866937</v>
+        <v>2.433039765277579e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001212469377474183</v>
+        <v>0.0007834373335546477</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004708762495168801</v>
+        <v>0.000102291853277095</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0004212194555267871</v>
+        <v>1.961035702278925e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0004460478525218337</v>
+        <v>6.095110514994215e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002972675263825836</v>
+        <v>0.0004254057672002311</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02526590492119159</v>
+        <v>0.004932585290978331</v>
       </c>
       <c r="N8" t="n">
-        <v>1.016412965486448</v>
+        <v>1.000625556510363</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02634152680132014</v>
+        <v>0.005142575658674462</v>
       </c>
       <c r="P8" t="n">
-        <v>64.71319769477675</v>
+        <v>71.24756811433718</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.18509331648177</v>
+        <v>101.7194637360422</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993022959506221</v>
+        <v>0.9999742395983233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9986907520395718</v>
+        <v>0.9991601663259212</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9992654253058685</v>
+        <v>0.9995198380209724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994834382960257</v>
+        <v>0.9999867940430011</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9993985443391</v>
+        <v>0.9999528649307704</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0006512761044259846</v>
+        <v>2.404620421423661e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001222125501716244</v>
+        <v>0.0007839478703148492</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004788212425939646</v>
+        <v>9.966570301787599e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0004310155561270664</v>
+        <v>1.98516590343067e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0004549183993605155</v>
+        <v>5.975868102609135e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00300282300274954</v>
+        <v>0.0004251522771566457</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02552011176358725</v>
+        <v>0.004903692915980425</v>
       </c>
       <c r="N9" t="n">
-        <v>1.016744897185069</v>
+        <v>1.00061824964024</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02660655575527729</v>
+        <v>0.005112453275457433</v>
       </c>
       <c r="P9" t="n">
-        <v>64.67315376425691</v>
+        <v>71.27106680559734</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.14504938596193</v>
+        <v>101.7429624273024</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999288214547542</v>
+        <v>0.9999745295339334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9986801960100113</v>
+        <v>0.9991596191277821</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9992530208698343</v>
+        <v>0.9995321669357943</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994714057950302</v>
+        <v>0.9999866279445605</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9993865623316622</v>
+        <v>0.9999537757039042</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000664420476099171</v>
+        <v>2.377556204889471e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001231979091954826</v>
+        <v>0.0007844586557584826</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004869068838813952</v>
+        <v>9.710662917023879e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0004410553927396008</v>
+        <v>2.010134405195484e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000463981138310498</v>
+        <v>5.860398661109681e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003033244049777288</v>
+        <v>0.0004249561200258871</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02577635498085738</v>
+        <v>0.004876019077987155</v>
       </c>
       <c r="N10" t="n">
-        <v>1.017082850858992</v>
+        <v>1.000611291185598</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02687370777680318</v>
+        <v>0.005083601304888048</v>
       </c>
       <c r="P10" t="n">
-        <v>64.6331907235338</v>
+        <v>71.29370461896038</v>
       </c>
       <c r="Q10" t="n">
-        <v>95.10508634523882</v>
+        <v>101.7656002406654</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9992738184073262</v>
+        <v>0.9999748176294713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9986693479476791</v>
+        <v>0.9991590451763325</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9992403632996666</v>
+        <v>0.9995445340094152</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9994591521050771</v>
+        <v>0.9999864601968119</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9993743492443927</v>
+        <v>0.9999546886229311</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0006778586410731232</v>
+        <v>2.35066375102119e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001242105281967029</v>
+        <v>0.0007849944142431347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004951575267694945</v>
+        <v>9.453963482136232e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0004512797879069297</v>
+        <v>2.035350836758797e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000473218657338212</v>
+        <v>5.744657159447514e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003064025386799726</v>
+        <v>0.0004247280874102564</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02603571856264242</v>
+        <v>0.004848364415987303</v>
       </c>
       <c r="N11" t="n">
-        <v>1.017428358224171</v>
+        <v>1.00060437689269</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02714411300322145</v>
+        <v>0.00505476932667382</v>
       </c>
       <c r="P11" t="n">
-        <v>64.59314357150843</v>
+        <v>71.31645545890363</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.06503919321345</v>
+        <v>101.7883510806086</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9992591543065019</v>
+        <v>0.9999750992508378</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9986582524924383</v>
+        <v>0.9991584605930401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9992275512530313</v>
+        <v>0.9995567683522109</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9994465763888889</v>
+        <v>0.9999862890825867</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9993618919688584</v>
+        <v>0.9999555886808345</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000691546935512965</v>
+        <v>2.324375632635042e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001252462402400116</v>
+        <v>0.0007855400970863494</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0005035088627725643</v>
+        <v>9.200019099001884e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0004617728795644229</v>
+        <v>2.061073328929075e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0004826408711684936</v>
+        <v>5.63054621396548e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003095067217346804</v>
+        <v>0.0004246682463368435</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02629728000217827</v>
+        <v>0.004821177898226782</v>
       </c>
       <c r="N12" t="n">
-        <v>1.017780296643954</v>
+        <v>1.000597617979892</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02741680965474515</v>
+        <v>0.005026425422568384</v>
       </c>
       <c r="P12" t="n">
-        <v>64.55315906846899</v>
+        <v>71.33894801419763</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.025054690174</v>
+        <v>101.8108436359026</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9992441863526457</v>
+        <v>0.9999756507759521</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9986468907168664</v>
+        <v>0.999157215911071</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9992145577938704</v>
+        <v>0.9995811649566763</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9994336794479968</v>
+        <v>0.9999859417690856</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9993491793403942</v>
+        <v>0.9999573798814494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0007055188634205078</v>
+        <v>2.272893184135506e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00126306812117221</v>
+        <v>0.0007867019530692483</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0005119784497468263</v>
+        <v>8.693626497858748e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0004725339989199493</v>
+        <v>2.11328271597558e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0004922562243333879</v>
+        <v>5.403454606917164e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003126417669372848</v>
+        <v>0.0004252984823621226</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02656160506107468</v>
+        <v>0.00476748695240533</v>
       </c>
       <c r="N13" t="n">
-        <v>1.018139527536504</v>
+        <v>1.00058438137715</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02769238757862709</v>
+        <v>0.004970448742027732</v>
       </c>
       <c r="P13" t="n">
-        <v>64.51315409873379</v>
+        <v>71.38374382909043</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.98504972043881</v>
+        <v>101.8556394507955</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9992288948751329</v>
+        <v>0.9999759142676933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.998635226489027</v>
+        <v>0.9991565845449742</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9992012534234198</v>
+        <v>0.9995931791801417</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9994204784158286</v>
+        <v>0.9999857601245943</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9993361650083524</v>
+        <v>0.9999582556776102</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0007197927864604047</v>
+        <v>2.248297386690679e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001273956165859856</v>
+        <v>0.0007872913056067982</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0005206506994744145</v>
+        <v>8.444251062029299e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0004835488499583446</v>
+        <v>2.140588154768742e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0005020997747163796</v>
+        <v>5.292419608399021e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00315813751572659</v>
+        <v>0.0004256457825020125</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0268289542558111</v>
+        <v>0.004741621438591106</v>
       </c>
       <c r="N14" t="n">
-        <v>1.018506522996811</v>
+        <v>1.000578057575361</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02797111838207257</v>
+        <v>0.004943482079741442</v>
       </c>
       <c r="P14" t="n">
-        <v>64.47309436791666</v>
+        <v>71.40550450447023</v>
       </c>
       <c r="Q14" t="n">
-        <v>94.94498998962167</v>
+        <v>101.8774001261752</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999213320883145</v>
+        <v>0.9999761691864547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9986233017967728</v>
+        <v>0.9991559272875518</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9991877823327857</v>
+        <v>0.999605073263378</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9994070247088144</v>
+        <v>0.9999855707399997</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9993229394652616</v>
+        <v>0.9999591170504359</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0007343304243619054</v>
+        <v>2.224501839267168e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001285087342645656</v>
+        <v>0.0007879048265604293</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005294316231953545</v>
+        <v>8.197369338926297e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0004947745311617383</v>
+        <v>2.169057113129174e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0005121030771785464</v>
+        <v>5.183213226027736e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003190112838093849</v>
+        <v>0.0004260064266344063</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02709853177502252</v>
+        <v>0.004716462487147723</v>
       </c>
       <c r="N15" t="n">
-        <v>1.018880298804521</v>
+        <v>1.000571939525087</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02825217237437922</v>
+        <v>0.004917252059648905</v>
       </c>
       <c r="P15" t="n">
-        <v>64.43310292243046</v>
+        <v>71.42678493376775</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.90499854413548</v>
+        <v>101.8986805554728</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9991974092538175</v>
+        <v>0.9999764264527071</v>
       </c>
       <c r="C16" t="n">
-        <v>0.998611074818827</v>
+        <v>0.9991552232150218</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9991740315796155</v>
+        <v>0.9996170861730728</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9993932162269121</v>
+        <v>0.9999853836023548</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9993093977274964</v>
+        <v>0.9999599894824711</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0007491832318992306</v>
+        <v>2.20048716387147e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001296500689855711</v>
+        <v>0.0007885620473619256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0005383948406492052</v>
+        <v>7.948021172616472e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0005062962341075681</v>
+        <v>2.197188302100657e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0005223455373783866</v>
+        <v>5.072604737358565e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0032224666954243</v>
+        <v>0.0004263106101870431</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02737121173604177</v>
+        <v>0.004690935049509288</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01926217790838</v>
+        <v>1.000565765135029</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02853646088586439</v>
+        <v>0.00489063786614112</v>
       </c>
       <c r="P16" t="n">
-        <v>64.39305393797186</v>
+        <v>71.44849338199273</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.86494955967687</v>
+        <v>101.9203890036977</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9991811956241161</v>
+        <v>0.9999766701147973</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9985985649838733</v>
+        <v>0.9991545208766311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9991600750194033</v>
+        <v>0.9996288218048622</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9993791455459835</v>
+        <v>0.9999851903429496</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9992956226827374</v>
+        <v>0.9999608355873236</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0007643179435294411</v>
+        <v>2.177742377307733e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001308178071666651</v>
+        <v>0.0007892176494205757</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0005474922102652711</v>
+        <v>7.704428376074037e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0005180367141293551</v>
+        <v>2.226239735615043e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0005327644621973131</v>
+        <v>4.96533405584454e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003255082519463774</v>
+        <v>0.0004266586724384905</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0276463007205203</v>
+        <v>0.004666628737437481</v>
       </c>
       <c r="N17" t="n">
-        <v>1.019651305021213</v>
+        <v>1.000559917244865</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02882326097792487</v>
+        <v>0.004865296784043414</v>
       </c>
       <c r="P17" t="n">
-        <v>64.35305339782937</v>
+        <v>71.46927346303994</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.82494901953439</v>
+        <v>101.941169084745</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9991646373459322</v>
+        <v>0.9999768886450714</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9985857125981643</v>
+        <v>0.9991538466430993</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9991458845338614</v>
+        <v>0.9996399408334229</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9993647607734419</v>
+        <v>0.9999849933118278</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9992815735917172</v>
+        <v>0.9999616289810704</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0007797743693896826</v>
+        <v>2.157343535465322e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001320175209571525</v>
+        <v>0.0007898470168271227</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0005567420605179649</v>
+        <v>7.473634217690664e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0005300392700467926</v>
+        <v>2.255858146834634e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0005433906652823788</v>
+        <v>4.86474618226265e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003288041226474017</v>
+        <v>0.0004271164675738131</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02792444035947153</v>
+        <v>0.004644721235408345</v>
       </c>
       <c r="N18" t="n">
-        <v>1.020048703697627</v>
+        <v>1.000554672518287</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02911324159713468</v>
+        <v>0.004842456634298117</v>
       </c>
       <c r="P18" t="n">
-        <v>64.31301190028101</v>
+        <v>71.48809568969149</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.78490752198603</v>
+        <v>101.9599913113965</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9991477444908925</v>
+        <v>0.9999771084819506</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9985725542743213</v>
+        <v>0.9991531225860142</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9991314485528793</v>
+        <v>0.9996511984868869</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9993500847982232</v>
+        <v>0.9999847918063645</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9992672580940101</v>
+        <v>0.9999624310700513</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0007955431080585645</v>
+        <v>2.136822727757274e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00133245792729532</v>
+        <v>0.0007905228923335801</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0005661519332064344</v>
+        <v>7.239962666041725e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0005422848034883332</v>
+        <v>2.286149156800695e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0005542183683473838</v>
+        <v>4.763055911421209e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003321334360681046</v>
+        <v>0.0004275254376809582</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0282053737443517</v>
+        <v>0.004622577990426202</v>
       </c>
       <c r="N19" t="n">
-        <v>1.02045413221858</v>
+        <v>1.000549396433184</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02940613489782148</v>
+        <v>0.004819370705534248</v>
       </c>
       <c r="P19" t="n">
-        <v>64.27297104352661</v>
+        <v>71.50721089172205</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.74486666523163</v>
+        <v>101.9791065134271</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9991305074742846</v>
+        <v>0.999977309523876</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9985590869494468</v>
+        <v>0.9991524155480562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9991167378544672</v>
+        <v>0.9996620777896736</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999334999183317</v>
+        <v>0.9999845852651819</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9992525982699906</v>
+        <v>0.9999631992018966</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0008116331064444927</v>
+        <v>2.118056346497963e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00134502908391837</v>
+        <v>0.0007911828812319439</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0005757408762361665</v>
+        <v>7.014144419710396e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0005548721374858957</v>
+        <v>2.317197153804811e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000565306506861031</v>
+        <v>4.665670786757603e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003354982766707035</v>
+        <v>0.0004280077009688257</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02848917525033838</v>
+        <v>0.004602234616464009</v>
       </c>
       <c r="N20" t="n">
-        <v>1.020867820617171</v>
+        <v>1.000544571426977</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02970201842146811</v>
+        <v>0.004798161272025896</v>
       </c>
       <c r="P20" t="n">
-        <v>64.23292431853366</v>
+        <v>71.52485322902068</v>
       </c>
       <c r="Q20" t="n">
-        <v>94.70481994023868</v>
+        <v>101.9967488507257</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9991129344972266</v>
+        <v>0.9999775209925235</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9985453065925551</v>
+        <v>0.9991516392783313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.99910185410445</v>
+        <v>0.9996732924008683</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9993196078848404</v>
+        <v>0.9999843763994197</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9992376952679953</v>
+        <v>0.9999639934039368</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0008280367091636259</v>
+        <v>2.098316676497281e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00135789244218905</v>
+        <v>0.000791907494945898</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005854426202992824</v>
+        <v>6.781366282830603e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00056771453176598</v>
+        <v>2.348594589781012e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0005765785760326312</v>
+        <v>4.564980436305808e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00338892399441079</v>
+        <v>0.0004283644114128787</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02877562699861857</v>
+        <v>0.004580738670233526</v>
       </c>
       <c r="N21" t="n">
-        <v>1.021289572066562</v>
+        <v>1.000539496179437</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03000066501370946</v>
+        <v>0.004775750198861638</v>
       </c>
       <c r="P21" t="n">
-        <v>64.19290613964618</v>
+        <v>71.54358004860066</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.6648017613512</v>
+        <v>102.0154756703057</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9990949674846551</v>
+        <v>0.9999778976780093</v>
       </c>
       <c r="C22" t="n">
-        <v>0.998531155915888</v>
+        <v>0.9991500697620832</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9990866406727134</v>
+        <v>0.9996947292706387</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9993038584104559</v>
+        <v>0.9999839490732916</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9992224526420619</v>
+        <v>0.9999654948860498</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0008448081267384385</v>
+        <v>2.063154739852289e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001371101477714901</v>
+        <v>0.0007933725694697311</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005953592623323362</v>
+        <v>6.336407958454703e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000580855785576173</v>
+        <v>2.412831756342555e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0005881075239542546</v>
+        <v>4.374619857398629e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003423281273833774</v>
+        <v>0.0004292521292847753</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0290655831996958</v>
+        <v>0.004542196318800288</v>
       </c>
       <c r="N22" t="n">
-        <v>1.021720780368278</v>
+        <v>1.000530455727778</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03030296525055862</v>
+        <v>0.004735567019734221</v>
       </c>
       <c r="P22" t="n">
-        <v>64.1528020506795</v>
+        <v>71.57737845298929</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.62469767238451</v>
+        <v>102.0492740746943</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9990766512298528</v>
+        <v>0.9999780664165796</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9985166861106285</v>
+        <v>0.9991492692217857</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9990711744242687</v>
+        <v>0.9997050893525888</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9992877562838088</v>
+        <v>0.9999837268728621</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9992069065601541</v>
+        <v>0.9999662112310554</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0008619055466057047</v>
+        <v>2.047403734994168e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00138460840577361</v>
+        <v>0.0007941198386977129</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0006054406990571484</v>
+        <v>6.121367014775794e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0005942912900246057</v>
+        <v>2.446233706411202e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0005998659945408769</v>
+        <v>4.283800360593498e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00345794962145521</v>
+        <v>0.0004297326305480309</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02935822792005173</v>
+        <v>0.004524824565653532</v>
       </c>
       <c r="N23" t="n">
-        <v>1.022160370483533</v>
+        <v>1.00052640600209</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03060806846251819</v>
+        <v>0.00471745571509152</v>
       </c>
       <c r="P23" t="n">
-        <v>64.11272973601537</v>
+        <v>71.59270589041257</v>
       </c>
       <c r="Q23" t="n">
-        <v>94.58462535772038</v>
+        <v>102.0646015121176</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9990579672952642</v>
+        <v>0.9999783935464862</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9985018816410105</v>
+        <v>0.9991475757431868</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9990554625087477</v>
+        <v>0.9997257836028187</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9992712608875641</v>
+        <v>0.9999832710127088</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999191037699225</v>
+        <v>0.999967635006208</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0008793461794141489</v>
+        <v>2.016867594138042e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001398427728320929</v>
+        <v>0.0007957006266347145</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0006156822700960527</v>
+        <v>5.691823009280305e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0006080549359379918</v>
+        <v>2.514760207994078e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0006118686030170222</v>
+        <v>4.10329160863719e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003492967781833193</v>
+        <v>0.000430548580798327</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02965377175696456</v>
+        <v>0.004490954903066877</v>
       </c>
       <c r="N24" t="n">
-        <v>1.022608784913659</v>
+        <v>1.000518554884331</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03091619421242849</v>
+        <v>0.004682144150848683</v>
       </c>
       <c r="P24" t="n">
-        <v>64.07266380915077</v>
+        <v>71.62275970620358</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.54455943085578</v>
+        <v>102.0946553279086</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9990389033367304</v>
+        <v>0.9999788066113882</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9984867123515131</v>
+        <v>0.9991448228877833</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990394523771865</v>
+        <v>0.9997555966521329</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9992543989753324</v>
+        <v>0.9999825501404856</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9991748381727065</v>
+        <v>0.9999696481344932</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000897141547894413</v>
+        <v>1.978309798686982e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001412587594211922</v>
+        <v>0.0007982702963175456</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0006261182286846465</v>
+        <v>5.073002975878241e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0006221244002866388</v>
+        <v>2.623124255977211e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0006241213144856427</v>
+        <v>3.848063615927726e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003528349832433724</v>
+        <v>0.0004323951053361174</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02995232124384374</v>
+        <v>0.004447819464284699</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02306631991847</v>
+        <v>1.000508641326684</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03122745356904675</v>
+        <v>0.00463717234713488</v>
       </c>
       <c r="P25" t="n">
-        <v>64.03259381382354</v>
+        <v>71.66136524369226</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.50448943552855</v>
+        <v>102.1332608653973</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999019446327295</v>
+        <v>0.9999789181818765</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9984711965592939</v>
+        <v>0.9991438866940399</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9990231751285787</v>
+        <v>0.9997650126027539</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9992371049749069</v>
+        <v>0.9999823028870941</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9991582852126748</v>
+        <v>0.9999702723405328</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0009153038121383891</v>
+        <v>1.967895183346945e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001427070905183865</v>
+        <v>0.0007991441920828188</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0006367283034213301</v>
+        <v>4.877559067527232e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0006365543960716953</v>
+        <v>2.660292255431364e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0006366413497465126</v>
+        <v>3.768925661479298e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003564094402950536</v>
+        <v>0.0004339830009378541</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03025398836745974</v>
+        <v>0.004436096463499126</v>
       </c>
       <c r="N26" t="n">
-        <v>1.02353328814492</v>
+        <v>1.000505963634965</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03154196328665211</v>
+        <v>0.004624950273935909</v>
       </c>
       <c r="P26" t="n">
-        <v>63.99250902535259</v>
+        <v>71.67192185650599</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.46440464705761</v>
+        <v>102.143817478211</v>
       </c>
     </row>
   </sheetData>
